--- a/biology/Médecine/Groupement_hospitalier_de_territoire_du_Loiret/Groupement_hospitalier_de_territoire_du_Loiret.xlsx
+++ b/biology/Médecine/Groupement_hospitalier_de_territoire_du_Loiret/Groupement_hospitalier_de_territoire_du_Loiret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le groupement hospitalier de territoire du Loiret, abrégé en GHT du Loiret, est un groupement hospitalier de territoire, mode de coopération entre les établissements publics de santé en France à l’échelle du département du Loiret.
@@ -512,9 +524,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’objectif d'un groupement hospitalier de territoire est de « garantir à tous les patients un meilleur accès aux soins en renforçant la coopération entre hôpitaux publics autour d’un projet médical »[1]. L’établissement support du groupement est le centre hospitalier universitaire d’Orléans[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’objectif d'un groupement hospitalier de territoire est de « garantir à tous les patients un meilleur accès aux soins en renforçant la coopération entre hôpitaux publics autour d’un projet médical ». L’établissement support du groupement est le centre hospitalier universitaire d’Orléans. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le groupement hospitalier de territoire du Loiret est composé de 8 établissements hospitaliers[2] :  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le groupement hospitalier de territoire du Loiret est composé de 8 établissements hospitaliers :  
 Le centre hospitalier universitaire d’Orléans
 Le centre hospitalier Pierre-Dézarnaulds de Gien
 Le centre hospitalier Lour-Picou de Beaugency
@@ -581,7 +597,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Localisation des établissements du groupement hospitalier de territoire du Loiret
 </t>
